--- a/leave/src/main/resources/TestData/Sanity/Accural/MA_With_CF.xlsx
+++ b/leave/src/main/resources/TestData/Sanity/Accural/MA_With_CF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\TestData\Sanity\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DF0AE9-FAA0-489E-A300-6C38457DEDA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668A48B3-EF0E-4925-85A2-CA9156514D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financial" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="104">
   <si>
     <t>Test Case</t>
   </si>
@@ -854,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D39E071-3F7A-4099-9276-4FA7B85B38AE}">
   <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1109,7 +1109,7 @@
         <v>29</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="Z3" t="s">
         <v>26</v>
@@ -1194,8 +1194,8 @@
       <c r="X4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Y4" s="10">
-        <v>100200300</v>
+      <c r="Y4" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="Z4" t="s">
         <v>26</v>
@@ -1281,7 +1281,7 @@
         <v>29</v>
       </c>
       <c r="Y5" s="6" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="Z5" t="s">
         <v>26</v>
@@ -1367,7 +1367,7 @@
         <v>29</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="Z6" t="s">
         <v>26</v>
